--- a/config_1.19/activity_043_khfl_config.xlsx
+++ b/config_1.19/activity_043_khfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hlqd_xycfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>condi_key|权限</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,10 +232,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼深海探险当前层数+3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -369,6 +361,14 @@
   </si>
   <si>
     <t>1500000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>khfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +441,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -537,9 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,6 +563,7 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -840,7 +844,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,15 +873,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>34</v>
+      <c r="B2" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -885,6 +889,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -904,7 +909,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="16" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -927,8 +932,8 @@
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>35</v>
+      <c r="G1" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -936,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -948,16 +953,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="17" t="s">
-        <v>36</v>
+      <c r="G2" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -969,8 +974,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="17" t="s">
-        <v>37</v>
+      <c r="G3" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1075,26 +1080,26 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
         <v>1000199</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>70</v>
+      <c r="G2" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
@@ -1107,26 +1112,26 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1000200</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>70</v>
+      <c r="G3" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1141,26 +1146,26 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1000201</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>70</v>
+      <c r="G4" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1173,26 +1178,26 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1000202</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>70</v>
+      <c r="G5" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -1205,26 +1210,26 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1000203</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>71</v>
+      <c r="G6" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1237,26 +1242,26 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1000204</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>72</v>
+      <c r="G7" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1270,85 +1275,85 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>1000205</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>70</v>
+      <c r="G8" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1000206</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>71</v>
+      <c r="G9" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1000207</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>300</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>72</v>
+      <c r="G10" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1448,25 +1453,25 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
         <v>1000208</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="11"/>
@@ -1480,26 +1485,26 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1000209</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>72</v>
+      <c r="G3" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1514,26 +1519,26 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1000210</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>46</v>
+      <c r="G4" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1546,25 +1551,25 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1000211</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="11"/>
@@ -1578,26 +1583,26 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1000212</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>72</v>
+      <c r="G6" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1610,26 +1615,26 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1000213</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>46</v>
+      <c r="G7" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1643,25 +1648,25 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>1000214</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1669,52 +1674,52 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1000215</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>800000</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>72</v>
+      <c r="G9" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1000216</v>
       </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>46</v>
+      <c r="G10" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>33</v>

--- a/config_1.19/activity_043_khfl_config.xlsx
+++ b/config_1.19/activity_043_khfl_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>index|索引</t>
   </si>
@@ -369,6 +369,13 @@
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -996,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,7 +1110,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="13"/>
@@ -1138,7 +1145,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="14"/>
@@ -1170,7 +1177,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="14"/>
@@ -1202,7 +1209,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="14"/>
@@ -1234,7 +1241,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="14"/>
@@ -1266,7 +1273,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="L7" s="12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="14"/>
@@ -1297,7 +1304,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1323,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1349,7 +1356,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
